--- a/pred_ohlcv/54/2019-10-17 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 CHR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>32.31166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -454,6 +462,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1232,6 +1330,9 @@
         <v>31.69</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1806,6 +1970,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1832,6 +1999,9 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1858,6 +2028,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1884,6 +2057,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1910,6 +2086,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1936,6 +2115,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1962,6 +2144,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1988,6 +2173,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2014,6 +2202,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2040,6 +2231,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2064,6 +2258,9 @@
         <v>31.32833333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2090,6 +2287,9 @@
         <v>31.30333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2116,6 +2316,9 @@
         <v>31.27333333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2142,6 +2345,9 @@
         <v>31.25166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,6 +2374,9 @@
         <v>31.215</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,6 +2403,9 @@
         <v>31.215</v>
       </c>
       <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2220,6 +2432,9 @@
         <v>31.21333333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2246,7 +2461,10 @@
         <v>31.19333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2272,6 +2490,9 @@
         <v>31.17</v>
       </c>
       <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2298,7 +2519,10 @@
         <v>31.16833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2324,7 +2548,10 @@
         <v>31.15333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2350,553 +2577,10 @@
         <v>31.13166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12269.7336</v>
-      </c>
-      <c r="G77" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C78" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D78" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E78" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6633.6033</v>
-      </c>
-      <c r="G78" t="n">
-        <v>31.08833333333333</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>10</v>
-      </c>
-      <c r="G79" t="n">
-        <v>31.05833333333334</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C80" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F80" t="n">
-        <v>36.1818</v>
-      </c>
-      <c r="G80" t="n">
-        <v>31.03333333333334</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C81" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E81" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>34.3792</v>
-      </c>
-      <c r="G81" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>56840.8972</v>
-      </c>
-      <c r="G82" t="n">
-        <v>30.97833333333334</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E83" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10</v>
-      </c>
-      <c r="G83" t="n">
-        <v>30.96833333333334</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10</v>
-      </c>
-      <c r="G84" t="n">
-        <v>30.93</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>10</v>
-      </c>
-      <c r="G85" t="n">
-        <v>30.92000000000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>30</v>
-      </c>
-      <c r="C86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>30</v>
-      </c>
-      <c r="E86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>22</v>
-      </c>
-      <c r="G86" t="n">
-        <v>30.88333333333334</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C87" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D87" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E87" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F87" t="n">
-        <v>41.8897</v>
-      </c>
-      <c r="G87" t="n">
-        <v>30.85666666666668</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C88" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D88" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E88" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F88" t="n">
-        <v>20</v>
-      </c>
-      <c r="G88" t="n">
-        <v>30.83666666666668</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C89" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D89" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E89" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>11505.6783</v>
-      </c>
-      <c r="G89" t="n">
-        <v>30.80000000000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C90" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D90" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E90" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1535.4029</v>
-      </c>
-      <c r="G90" t="n">
-        <v>30.76333333333335</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>30</v>
-      </c>
-      <c r="G91" t="n">
-        <v>30.74833333333335</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C92" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D92" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E92" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10</v>
-      </c>
-      <c r="G92" t="n">
-        <v>30.71166666666669</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2143</v>
-      </c>
-      <c r="G93" t="n">
-        <v>30.69666666666669</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C94" t="n">
-        <v>30</v>
-      </c>
-      <c r="D94" t="n">
-        <v>30</v>
-      </c>
-      <c r="E94" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F94" t="n">
-        <v>13888.9693</v>
-      </c>
-      <c r="G94" t="n">
-        <v>30.67000000000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C95" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D95" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E95" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F95" t="n">
-        <v>85.2106</v>
-      </c>
-      <c r="G95" t="n">
-        <v>30.64166666666669</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C96" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D96" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E96" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>102.7451</v>
-      </c>
-      <c r="G96" t="n">
-        <v>30.61000000000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10</v>
-      </c>
-      <c r="G97" t="n">
-        <v>30.58833333333336</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
